--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2240816.105137801</v>
+        <v>-2243399.13720753</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>44.37321050886595</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>15.83694765563978</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>95.44297163921438</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>106.3831854259912</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>364.5997545638849</v>
+        <v>41.35684107511692</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>158.7757060678655</v>
       </c>
       <c r="U7" t="n">
-        <v>261.2047135233166</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>290.6755243716756</v>
+        <v>15.03347606442134</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.3991884271815</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.0467181087597</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>146.0535160667521</v>
       </c>
       <c r="W13" t="n">
-        <v>249.1295239142471</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>147.6895341487358</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>103.168699193619</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>136.4207955213648</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673013</v>
+        <v>139.6152205166462</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514105</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176013</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149751</v>
+        <v>171.0385136149753</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316657</v>
+        <v>158.4533545316658</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>44.76793778823694</v>
+        <v>44.76793778823458</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253067</v>
+        <v>156.7306717253068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792617</v>
+        <v>131.5012462792619</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160337</v>
+        <v>72.47236975160351</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315952</v>
+        <v>57.58178014315967</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346824</v>
+        <v>172.2328194346826</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603261</v>
+        <v>208.6119837603262</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222819</v>
+        <v>277.3910078222821</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568658</v>
+        <v>243.344176756866</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696288</v>
+        <v>277.729531769629</v>
       </c>
       <c r="X28" t="n">
-        <v>216.916188822075</v>
+        <v>216.9161888220751</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851326</v>
+        <v>209.7911867851328</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,7 +3481,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
         <v>262.2383508445512</v>
@@ -3490,7 +3490,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652582</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>950.1045973369971</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>564.3163447387528</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>153.3304399491454</v>
+        <v>821.1650657389507</v>
       </c>
       <c r="G2" t="n">
-        <v>153.3304399491454</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927149</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064626</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143253</v>
+        <v>457.7221995722995</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143253</v>
+        <v>457.7221995722995</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143253</v>
+        <v>457.7221995722995</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143253</v>
+        <v>309.8091059899064</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143253</v>
+        <v>162.919158491996</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143253</v>
+        <v>162.919158491996</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>162.919158491996</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588482</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068854</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>723.5987855191557</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>501.8321700886818</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U4" t="n">
-        <v>212.7293032143253</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V4" t="n">
-        <v>212.7293032143253</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W4" t="n">
-        <v>212.7293032143253</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="X4" t="n">
-        <v>212.7293032143253</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.7293032143253</v>
+        <v>639.3706644025392</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649822</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="W5" t="n">
-        <v>2788.565186649822</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.282606282261</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064626</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>385.5649387724261</v>
+        <v>478.9911633238871</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4750,25 +4750,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>478.9911633238871</v>
       </c>
       <c r="U7" t="n">
-        <v>567.2134036026658</v>
+        <v>478.9911633238871</v>
       </c>
       <c r="V7" t="n">
-        <v>567.2134036026658</v>
+        <v>478.9911633238871</v>
       </c>
       <c r="W7" t="n">
-        <v>567.2134036026658</v>
+        <v>478.9911633238871</v>
       </c>
       <c r="X7" t="n">
-        <v>567.2134036026658</v>
+        <v>478.9911633238871</v>
       </c>
       <c r="Y7" t="n">
-        <v>567.2134036026658</v>
+        <v>478.9911633238871</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1848.950422814787</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="C8" t="n">
-        <v>1479.987905874375</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="D8" t="n">
-        <v>1121.722207267625</v>
+        <v>1247.33629988656</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,10 +4799,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878909</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y8" t="n">
-        <v>2235.550262878909</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4887,16 +4887,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.6639240396553</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>661.312388869895</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>661.312388869895</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>661.312388869895</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>661.312388869895</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W10" t="n">
-        <v>661.312388869895</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X10" t="n">
-        <v>661.312388869895</v>
+        <v>438.2129667142807</v>
       </c>
       <c r="Y10" t="n">
-        <v>661.312388869895</v>
+        <v>217.4203875707506</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,16 +5057,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,13 +5112,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589157</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5194,7 +5194,7 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5203,7 +5203,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5212,10 +5212,10 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W13" t="n">
-        <v>1182.055381897054</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.055381897054</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>961.2628027535235</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5349,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5413,31 +5413,31 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797742</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615664</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334537</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673286</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.54608366783</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694715</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740623</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913444</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084665</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300423</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3369.710724020922</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>3997.308687575529</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575529</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070597</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445479</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301204</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022978</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566163</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.23547033442</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606219</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400686</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635732</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400709</v>
+        <v>951.7772127656158</v>
       </c>
       <c r="C19" t="n">
-        <v>344.917417812164</v>
+        <v>782.8410298377089</v>
       </c>
       <c r="D19" t="n">
-        <v>344.917417812164</v>
+        <v>632.7243904253731</v>
       </c>
       <c r="E19" t="n">
-        <v>344.917417812164</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>198.0274703142536</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703106</v>
+        <v>1133.425677595855</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745235</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533435</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1350.991564824961</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,31 +5984,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589157</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400703</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121634</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121634</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121634</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121634</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,22 +6251,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143764</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.4384611046136</v>
+        <v>663.4384611046105</v>
       </c>
       <c r="C28" t="n">
-        <v>503.3845676382846</v>
+        <v>503.3845676382814</v>
       </c>
       <c r="D28" t="n">
-        <v>503.3845676382846</v>
+        <v>503.3845676382814</v>
       </c>
       <c r="E28" t="n">
-        <v>503.3845676382846</v>
+        <v>503.3845676382814</v>
       </c>
       <c r="F28" t="n">
-        <v>458.1644284582463</v>
+        <v>458.1644284582468</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8506186347042</v>
+        <v>299.8506186347046</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384803</v>
+        <v>167.0210769384805</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>182.7582133795881</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064193</v>
+        <v>453.1530078064191</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836519</v>
+        <v>852.2571338836516</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515979</v>
+        <v>1282.972368515978</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.08777207728</v>
+        <v>1709.087772077279</v>
       </c>
       <c r="O28" t="n">
         <v>2087.322584687557</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162409</v>
+        <v>2388.703572162408</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790601</v>
+        <v>2516.607338790599</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.443924504581</v>
+        <v>2458.44392450458</v>
       </c>
       <c r="S28" t="n">
-        <v>2284.471379621064</v>
+        <v>2284.471379621062</v>
       </c>
       <c r="T28" t="n">
-        <v>2073.752204105583</v>
+        <v>2073.752204105581</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.559266911358</v>
+        <v>1793.559266911356</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.75706816705</v>
+        <v>1547.757068167047</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.222187591667</v>
+        <v>1267.222187591664</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.114926155228</v>
+        <v>1048.114926155225</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.2046364732753</v>
+        <v>836.2046364732723</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589157</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143764</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954147</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,37 +6686,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6725,7 +6725,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438179</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231133</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979287</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7102,7 +7102,7 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,25 +7333,25 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452619</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,13 +7597,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,7 +7722,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7734,10 +7734,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,10 +7846,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>250.2345538784545</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>311.9153108144951</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,19 +22711,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0.9094487706238397</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,13 +22753,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>83.38583990545071</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182156</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>106.0841272570759</v>
       </c>
       <c r="W13" t="n">
-        <v>37.39347442234392</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.4949402405084</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>62.35543909864988</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>80.98465480592348</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194288</v>
+        <v>146.569253872598</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>127.7255247667962</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405087</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512502</v>
+        <v>139.8220064512503</v>
       </c>
       <c r="E28" t="n">
-        <v>137.640496079607</v>
+        <v>137.6404960796071</v>
       </c>
       <c r="F28" t="n">
-        <v>91.85964366773213</v>
+        <v>91.85964366773464</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49356.14660531241</v>
+        <v>49356.14660531239</v>
       </c>
       <c r="C2" t="n">
+        <v>61578.13273982123</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61578.13273982122</v>
+      </c>
+      <c r="E2" t="n">
+        <v>60535.99497675047</v>
+      </c>
+      <c r="F2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60535.99497675045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60913.35287666378</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61578.13273982122</v>
+      </c>
+      <c r="L2" t="n">
         <v>61578.13273982124</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61578.13273982124</v>
-      </c>
-      <c r="E2" t="n">
-        <v>60535.99497675044</v>
-      </c>
-      <c r="F2" t="n">
-        <v>60535.99497675043</v>
-      </c>
-      <c r="G2" t="n">
-        <v>60535.99497675043</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60535.99497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60535.99497675045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>60913.35287666377</v>
-      </c>
-      <c r="K2" t="n">
-        <v>61578.13273982124</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982125</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508471</v>
+        <v>224565.975650847</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006207</v>
+        <v>12392.94474006216</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569721</v>
+        <v>7034.773253569604</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006207</v>
+        <v>12392.94474006218</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186746</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>17720.18476944089</v>
+        <v>17720.18476944081</v>
       </c>
       <c r="K4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496086</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="M4" t="n">
         <v>22817.55530496084</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1387907.186672679</v>
+        <v>-1388314.586210496</v>
       </c>
       <c r="C6" t="n">
         <v>-139952.5519256246</v>
@@ -26528,40 +26528,40 @@
         <v>-139952.5519256246</v>
       </c>
       <c r="E6" t="n">
-        <v>-380825.6926963788</v>
+        <v>-380860.430621815</v>
       </c>
       <c r="F6" t="n">
-        <v>-55413.23088902407</v>
+        <v>-55447.96881445972</v>
       </c>
       <c r="G6" t="n">
-        <v>-55413.2308890241</v>
+        <v>-55447.96881445973</v>
       </c>
       <c r="H6" t="n">
-        <v>-55413.23088902409</v>
+        <v>-55447.96881445973</v>
       </c>
       <c r="I6" t="n">
-        <v>-55413.23088902401</v>
+        <v>-55447.96881445972</v>
       </c>
       <c r="J6" t="n">
-        <v>-283234.5953083493</v>
+        <v>-283256.754637121</v>
       </c>
       <c r="K6" t="n">
-        <v>-76796.48315911707</v>
+        <v>-76796.48315911717</v>
       </c>
       <c r="L6" t="n">
-        <v>-64403.538419055</v>
+        <v>-64403.53841905499</v>
       </c>
       <c r="M6" t="n">
-        <v>-149458.5663545668</v>
+        <v>-149458.5663545669</v>
       </c>
       <c r="N6" t="n">
-        <v>-64403.53841905498</v>
+        <v>-64403.53841905496</v>
       </c>
       <c r="O6" t="n">
-        <v>-71438.3116726247</v>
+        <v>-71438.31167262458</v>
       </c>
       <c r="P6" t="n">
-        <v>-76796.48315911705</v>
+        <v>-76796.48315911715</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507758</v>
+        <v>15.4911809250777</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566962151</v>
+        <v>8.793466566962005</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507759</v>
+        <v>15.49118092507772</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507758</v>
+        <v>15.4911809250777</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>5.131346114584176</v>
+        <v>328.3742596033521</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>60.77324320830365</v>
       </c>
       <c r="U7" t="n">
-        <v>25.00712468229631</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>91.25484570058615</v>
+        <v>366.8968940078404</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.43279175475578</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>21.72230722268222</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.562507580260755e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566962179</v>
+        <v>8.793466566962019</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328829</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>302.9675447508056</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460043</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565771</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,10 +33050,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565771</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,10 +33287,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362267</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663298</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,10 +33761,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460043</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,25 +33968,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,10 +34235,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,22 +34445,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884385</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>160.8335108287873</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243176</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121327</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991551</v>
+        <v>89.83994982991538</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765971</v>
+        <v>273.1260549765969</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860936</v>
+        <v>403.1354808860934</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680072</v>
+        <v>435.0658935680071</v>
       </c>
       <c r="N28" t="n">
         <v>430.4195995568695</v>
@@ -36768,10 +36768,10 @@
         <v>382.0553662730075</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735871</v>
+        <v>304.425239873587</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668605</v>
+        <v>129.1957238668604</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121327</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402486</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243176</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111711</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164546</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37944,16 +37944,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,16 +38181,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
         <v>144.686904791938</v>
